--- a/public/transaction/transaction-A000009.xlsx
+++ b/public/transaction/transaction-A000009.xlsx
@@ -754,7 +754,7 @@
       </c>
       <c r="AF2"/>
       <c r="AG2">
-        <v>2265</v>
+        <v>2265.0</v>
       </c>
       <c r="AH2" t="s">
         <v>56</v>
